--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp10-Bmpr2.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H2">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I2">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J2">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N2">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q2">
-        <v>19.01739880684</v>
+        <v>6.578822505006666</v>
       </c>
       <c r="R2">
-        <v>171.15658926156</v>
+        <v>59.20940254505999</v>
       </c>
       <c r="S2">
-        <v>0.06454486327432929</v>
+        <v>0.02574078575722003</v>
       </c>
       <c r="T2">
-        <v>0.06454486327432932</v>
+        <v>0.02574078575722003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H3">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I3">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J3">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q3">
-        <v>16.57683755946666</v>
+        <v>4.987759317866667</v>
       </c>
       <c r="R3">
-        <v>149.1915380352</v>
+        <v>44.8898338608</v>
       </c>
       <c r="S3">
-        <v>0.05626162256279303</v>
+        <v>0.019515474678345</v>
       </c>
       <c r="T3">
-        <v>0.05626162256279305</v>
+        <v>0.019515474678345</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H4">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I4">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J4">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N4">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q4">
-        <v>12.05731335902667</v>
+        <v>3.923884113641666</v>
       </c>
       <c r="R4">
-        <v>108.51582023124</v>
+        <v>35.314957022775</v>
       </c>
       <c r="S4">
-        <v>0.04092240217070125</v>
+        <v>0.01535287815236581</v>
       </c>
       <c r="T4">
-        <v>0.04092240217070126</v>
+        <v>0.01535287815236581</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H5">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I5">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J5">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N5">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q5">
-        <v>16.54605637441333</v>
+        <v>2.364574828986666</v>
       </c>
       <c r="R5">
-        <v>148.91450736972</v>
+        <v>21.28117346088</v>
       </c>
       <c r="S5">
-        <v>0.05615715152546196</v>
+        <v>0.009251809732446841</v>
       </c>
       <c r="T5">
-        <v>0.05615715152546198</v>
+        <v>0.009251809732446841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H6">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I6">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J6">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N6">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q6">
-        <v>10.43816731177333</v>
+        <v>3.946148904914999</v>
       </c>
       <c r="R6">
-        <v>93.94350580596002</v>
+        <v>35.515340144235</v>
       </c>
       <c r="S6">
-        <v>0.03542703651619603</v>
+        <v>0.01543999301549823</v>
       </c>
       <c r="T6">
-        <v>0.03542703651619603</v>
+        <v>0.01543999301549823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5939599999999999</v>
+        <v>0.178715</v>
       </c>
       <c r="H7">
-        <v>1.78188</v>
+        <v>0.536145</v>
       </c>
       <c r="I7">
-        <v>0.298608010875292</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="J7">
-        <v>0.2986080108752921</v>
+        <v>0.09904930989061336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N7">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q7">
-        <v>13.34562962588</v>
+        <v>3.513804019353333</v>
       </c>
       <c r="R7">
-        <v>120.11066663292</v>
+        <v>31.62423617418</v>
       </c>
       <c r="S7">
-        <v>0.04529493482581044</v>
+        <v>0.01374836855473746</v>
       </c>
       <c r="T7">
-        <v>0.04529493482581046</v>
+        <v>0.01374836855473746</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H8">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J8">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N8">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O8">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P8">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q8">
-        <v>26.37977298799499</v>
+        <v>53.39546808498444</v>
       </c>
       <c r="R8">
-        <v>237.417956891955</v>
+        <v>480.5592127648599</v>
       </c>
       <c r="S8">
-        <v>0.08953268835617934</v>
+        <v>0.2089190433905272</v>
       </c>
       <c r="T8">
-        <v>0.08953268835617935</v>
+        <v>0.2089190433905271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H9">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J9">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P9">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q9">
-        <v>22.9943756304</v>
+        <v>40.48197732497778</v>
       </c>
       <c r="R9">
-        <v>206.9493806736</v>
+        <v>364.3377959248</v>
       </c>
       <c r="S9">
-        <v>0.07804268324061889</v>
+        <v>0.1583927677875293</v>
       </c>
       <c r="T9">
-        <v>0.0780426832406189</v>
+        <v>0.1583927677875292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H10">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I10">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J10">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N10">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q10">
-        <v>16.725167962605</v>
+        <v>31.84728403900278</v>
       </c>
       <c r="R10">
-        <v>150.526511663445</v>
+        <v>286.625556351025</v>
       </c>
       <c r="S10">
-        <v>0.05676505448254363</v>
+        <v>0.1246080305059808</v>
       </c>
       <c r="T10">
-        <v>0.05676505448254363</v>
+        <v>0.1246080305059808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H11">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J11">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N11">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q11">
-        <v>22.951677852315</v>
+        <v>19.19151637236444</v>
       </c>
       <c r="R11">
-        <v>206.565100670835</v>
+        <v>172.72364735128</v>
       </c>
       <c r="S11">
-        <v>0.07789776740451501</v>
+        <v>0.07509014127091322</v>
       </c>
       <c r="T11">
-        <v>0.07789776740451503</v>
+        <v>0.07509014127091321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H12">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J12">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N12">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q12">
-        <v>14.479187553045</v>
+        <v>32.02799098936499</v>
       </c>
       <c r="R12">
-        <v>130.312687977405</v>
+        <v>288.251918904285</v>
       </c>
       <c r="S12">
-        <v>0.04914221920815625</v>
+        <v>0.1253150778371065</v>
       </c>
       <c r="T12">
-        <v>0.04914221920815626</v>
+        <v>0.1253150778371065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8239049999999999</v>
+        <v>1.450498333333333</v>
       </c>
       <c r="H13">
-        <v>2.471715</v>
+        <v>4.351495</v>
       </c>
       <c r="I13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046613</v>
       </c>
       <c r="J13">
-        <v>0.4142107771570602</v>
+        <v>0.8039104659046612</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N13">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O13">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P13">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q13">
-        <v>18.512241526215</v>
+        <v>28.51896524484222</v>
       </c>
       <c r="R13">
-        <v>166.610173735935</v>
+        <v>256.67068720358</v>
       </c>
       <c r="S13">
-        <v>0.06283036446504706</v>
+        <v>0.1115854051126044</v>
       </c>
       <c r="T13">
-        <v>0.06283036446504707</v>
+        <v>0.1115854051126044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H14">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J14">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N14">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O14">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P14">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q14">
-        <v>18.289662162149</v>
+        <v>6.445379696173332</v>
       </c>
       <c r="R14">
-        <v>164.6069594593409</v>
+        <v>58.00841726556</v>
       </c>
       <c r="S14">
-        <v>0.06207493230698767</v>
+        <v>0.02521866758935543</v>
       </c>
       <c r="T14">
-        <v>0.06207493230698768</v>
+        <v>0.02521866758935543</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H15">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J15">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>83.72704</v>
       </c>
       <c r="O15">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P15">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q15">
-        <v>15.94249359541333</v>
+        <v>4.886589144533334</v>
       </c>
       <c r="R15">
-        <v>143.48244235872</v>
+        <v>43.9793023008</v>
       </c>
       <c r="S15">
-        <v>0.05410866542892927</v>
+        <v>0.01911962880245881</v>
       </c>
       <c r="T15">
-        <v>0.05410866542892927</v>
+        <v>0.01911962880245881</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>20</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H16">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I16">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J16">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N16">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q16">
-        <v>11.59591751530433</v>
+        <v>3.844293257183333</v>
       </c>
       <c r="R16">
-        <v>104.363257637739</v>
+        <v>34.59863931465</v>
       </c>
       <c r="S16">
-        <v>0.0393564292450196</v>
+        <v>0.01504146510196531</v>
       </c>
       <c r="T16">
-        <v>0.0393564292450196</v>
+        <v>0.01504146510196531</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H17">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J17">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N17">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q17">
-        <v>15.91289031047966</v>
+        <v>2.316612521653333</v>
       </c>
       <c r="R17">
-        <v>143.216012794317</v>
+        <v>20.84951269488</v>
       </c>
       <c r="S17">
-        <v>0.05400819217294289</v>
+        <v>0.009064148874208196</v>
       </c>
       <c r="T17">
-        <v>0.0540081921729429</v>
+        <v>0.009064148874208193</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H18">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J18">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N18">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q18">
-        <v>10.03873114632567</v>
+        <v>3.86610643629</v>
       </c>
       <c r="R18">
-        <v>90.34858031693099</v>
+        <v>34.79495792661</v>
       </c>
       <c r="S18">
-        <v>0.03407135412516528</v>
+        <v>0.01512681295405302</v>
       </c>
       <c r="T18">
-        <v>0.03407135412516529</v>
+        <v>0.01512681295405301</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5712309999999999</v>
+        <v>0.17509</v>
       </c>
       <c r="H19">
-        <v>1.713693</v>
+        <v>0.52527</v>
       </c>
       <c r="I19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472538</v>
       </c>
       <c r="J19">
-        <v>0.2871812119676476</v>
+        <v>0.09704022420472537</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N19">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O19">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P19">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q19">
-        <v>12.834933929593</v>
+        <v>3.442531101186666</v>
       </c>
       <c r="R19">
-        <v>115.514405366337</v>
+        <v>30.98277991068</v>
       </c>
       <c r="S19">
-        <v>0.04356163868860281</v>
+        <v>0.01346950088268462</v>
       </c>
       <c r="T19">
-        <v>0.04356163868860282</v>
+        <v>0.01346950088268462</v>
       </c>
     </row>
   </sheetData>
